--- a/PLSstatic_predicted_variables_matrix_8.xlsx
+++ b/PLSstatic_predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:AV67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,135 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +595,135 @@
       <c r="E2" t="n">
         <v>-0.2724510601729293</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2683972792229086</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2646589270762844</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.2610884507760484</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.2578297991966071</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.254888755079158</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2522700729074692</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2499756835850021</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.2479163294257026</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2461894602139549</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2447862813999448</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2436934738118636</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.24285195377783</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2422937362602379</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2419965340457595</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2419362696280751</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2420881311308638</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2424272612124631</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.242929282658517</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.2435706973645235</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.2443291802768128</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.2451837865289662</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.246113611592963</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.247105814367242</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2481442536535257</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2492144991827907</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2503036053384198</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2514033853941987</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2525041176230767</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2535968609378571</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2546739489183552</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.2557287972454119</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.256755836242032</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2577355592287482</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2586760324393271</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.259574624547826</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.260429428697285</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2612627972340125</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2620525677404713</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2627984382263802</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2635005909943221</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2641595835732459</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2647762983219797</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.2653518966698686</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +741,135 @@
       <c r="E3" t="n">
         <v>0.2154968030708692</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2237199136918051</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2300935796641858</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2350153572207413</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2387067104101272</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2414123182107438</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2433279329752295</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2446110312809476</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2453978441575652</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2457859869330182</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.245858670013007</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2456837679541637</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2453224257074845</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.244821150283961</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2442153253590761</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2435351407824841</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2428059317591872</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2420489499992338</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2412819962940796</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.240519917658157</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2397750043133529</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2390573144133294</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2383654807046947</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2377136104626928</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.237107424232726</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.236550528598661</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2360453365176363</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2355822703978354</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.2351730956196207</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2348177799291293</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2345152464461058</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2342639731799865</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2340620967870649</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.2339198153429967</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2338208941772099</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.2337632419201642</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2337447492098539</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2337502862351346</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2337918584537772</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2338662434777748</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2339701679085222</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.2341005351904873</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2342544360559626</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.2344291439400272</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +887,135 @@
       <c r="E4" t="n">
         <v>0.1850877295757927</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1934494906474023</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1999975097530877</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2052129955878493</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2092795209968341</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2124534080239167</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2149301291621094</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2168600350115442</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2184171420019242</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.219628985155107</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2205633500554569</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2212729281081995</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2218548480802935</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2222829527105214</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2225791500538122</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.2227634827976185</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2228527826088557</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2228613578835953</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2228016038375319</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2226844355790126</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2225195864242457</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2223158114353507</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.2220383567072561</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.2217404490898936</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2214302944605412</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.2211128239935612</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.220792341266289</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.2204371190811348</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.2200891294060158</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.2197523818983556</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2194287638644153</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2191198637951551</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2188270942181439</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.2185846630870507</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.2183581889315221</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.2181483439726589</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.217956575349671</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2177516040098326</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2175685011336856</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2174077075187924</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.217268774248274</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.2171511681752864</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.2170543219559655</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.2169776298543843</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1033,135 @@
       <c r="E5" t="n">
         <v>-0.06280719909894007</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.05941347222006741</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.05720975305915936</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.0559837491148261</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.05545657024019802</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.05546168842251021</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.05586899641286472</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.05657735791903377</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.05751966836452724</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.05860404442335065</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.05978676191926314</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.06103419067830883</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.06230276022640853</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.06357796690965634</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.06484634935091638</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.06609767934489277</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.0673236475305849</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.06851742418895836</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.06967339556155716</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.07078698420787086</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.07185452109555759</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.07287314977635401</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.0738835926841049</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.07483952405441557</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.07574096933782543</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.07658768002444449</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.07737984374275166</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.07815977958242268</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.07888335025136926</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.07955309823827095</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.08017112084639369</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.08073959709980219</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.08126081020303433</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.08169575523446926</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.0820923109949861</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.08245163256931309</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.08277551245364695</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.08310635677153508</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.08340210423452793</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.08366608109963795</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.08390112993237558</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.08410987303076869</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.08429474789682051</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.08445802119031148</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1179,135 @@
       <c r="E6" t="n">
         <v>0.1958382576252012</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.2031109501765683</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2086367496035269</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2125104375230492</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2150988753811736</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2166270026949996</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2172886860883067</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2172509524511217</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2164913354233835</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2153342139101246</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2138808727134479</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2122155831884131</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2102877686612151</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.2083158785696503</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.2063386968099875</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.2043886023212151</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2024913539598162</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.2006671647881801</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.1989316482416731</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1972965781029802</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1957704999508003</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1943592295286984</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1930658339231623</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.191880930816982</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1908086265940169</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1898493686185362</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1890019901770565</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1882364399450935</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1875758435249135</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1870176960322877</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.186557448886289</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1861899169242714</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1859095147845438</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1857531211010385</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.1856656345251095</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1856413233615409</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.1856750899644763</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1857180405344763</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.1858169832003022</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1859657018323263</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.186157800484182</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.186387270554271</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.1866485375112081</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.1869364614678723</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1325,135 @@
       <c r="E7" t="n">
         <v>-0.4181812040950691</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4136162957422556</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.410106921992334</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4073639372531166</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.4052747929560049</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.4037089884590378</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.4025685504116905</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.40177977709806</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.401221261333331</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.400913015564796</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.400824087948891</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.4009293219774064</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.4011436858458495</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.4015135348596198</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.4020232548489282</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.4026580301577936</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.4034034293271626</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.4042453817724929</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.4051702342789514</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.4061648354897762</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.407216626783434</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.4083137271179927</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.4094956022418667</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.4106979463899575</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.4119124255515179</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.4131310842500915</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.4143466820365527</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.4156000434354429</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.4168351834033829</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.41804818711821</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.4192353703736942</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.4203935196184276</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.4215199097565392</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.4225617782228958</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.4235705007014426</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.4245437439829915</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.42548000259538</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.4264317504370994</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.4273426917772387</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.4282135930123716</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.429045240449766</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.429838543298416</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.4305945371271978</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.4313143746856067</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1471,135 @@
       <c r="E8" t="n">
         <v>-0.1935283940575739</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.1861830615324891</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.1797224542010131</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.1739098292047522</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1687822063754155</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.1642478608067284</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.1602390786187048</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.1567028158518123</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1535643132250548</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1508280029551219</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.1484643838754501</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1464461239459139</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.1447432781555993</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.1433363116162175</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1422068223341169</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.1413328402882791</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.1406925332691004</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.1402644958856525</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.14002782462</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.1399622065993915</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1400480218537829</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1402664467182118</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1405981355618578</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1410320146625157</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1415484754134104</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1421330138077653</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.142772412739209</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1434627417439558</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1441873148528079</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.1449334825531668</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.1456923552215328</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.146456090782969</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.1472176773192392</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.1479501031482211</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1486679544064174</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.1493679075401797</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.150045675146798</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1507253325401109</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.1513760650205796</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.1519948529304629</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1525804306945786</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1531320471676177</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.1536493377313794</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-0.1541322830713502</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1617,135 @@
       <c r="E9" t="n">
         <v>-0.3822531908609383</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.3694756891789886</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3591241462926369</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.3505970292640635</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.343791792072748</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3384051846002091</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.3341925869515111</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3309555504278993</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.3284512507968221</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.3266462261770897</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.3254266235317538</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.3246982329617597</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.324332522920771</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.3243202846632762</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.3246044735660493</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.3251355152056585</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.3258705120130195</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.3267721197149009</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.3278076597052619</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.328948441971113</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.3301692440900577</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.331447903129878</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.3327929911433524</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.3341582133204435</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.3355289496694762</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.3368932343368489</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3382408192332236</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.3395916016645683</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.3409079812516421</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3421842799682159</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.3434163289042653</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.3446008540362909</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.3457353720683199</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.3467844622001979</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.3477831463646193</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.3487302277996416</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.3496249843901973</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.3505044254301309</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.3513293784419154</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.3521016412340547</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.3528233948022945</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.3534969386392259</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.3541246541337554</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>-0.3547089838241486</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1763,135 @@
       <c r="E10" t="n">
         <v>0.383079236943726</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3878436082541449</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3917154317204586</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3948407720177002</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3973536647741158</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.3993543131562957</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4009225731930807</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.4021235177974435</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.4029969129648009</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4036098771235082</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.403998840487778</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4041960861221888</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4042134636851576</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4041015185490482</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.403881142278382</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4035724362850543</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4031940203361039</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.4027629813484047</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4022948687595895</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.4018036997430286</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.4013019767746779</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4008007198896264</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.400319309491647</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.3998515230370145</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.3994053595306456</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.3989868388525571</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3986008125866879</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3982542536665347</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3979442925410831</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3976735122749381</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.3974432888962288</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3972543601564563</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.3971069255674444</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3970038901135727</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.3969424347941042</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.3969213919133341</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3969394998289036</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.3969885702970862</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.3970730529443972</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.3971908745616878</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.3973397118079264</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.3975172312309023</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.3977211214542443</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.3979491090969631</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1909,135 @@
       <c r="E11" t="n">
         <v>-0.2172137940228773</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2120420287011595</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2086618266005553</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.2065780851474232</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.2054456504537246</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.204983885707427</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.2049873569655615</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.2053062650260292</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.2057653843824456</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.206342794425764</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.2069907420902823</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.2076771292818154</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.2082835795300328</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.2088942395008537</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.2095069576152085</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.2101201135491314</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.2107333235840803</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.2113468486371879</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.2119611438889108</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.2125765873234065</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.2131933350847209</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.2138112604764105</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.2145167184607168</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.2152129577357794</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.2158987003660023</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.216574277734595</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.2172398464318115</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.2179638812153745</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.2186703924652303</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.2193591715697742</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.2200309923115527</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.2206864038598301</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.2213257100897656</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.2218914201766574</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.2224459766839805</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.2229886825995745</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.22351829533571</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.2240870489278825</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.2246377258371666</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.2251702251929341</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.2256849043156116</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.226182054250061</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.226661899980939</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-0.2271246316639797</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2055,135 @@
       <c r="E12" t="n">
         <v>-0.07809148152678952</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.07229811525278175</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.06854722832058882</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.06651311427557055</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.06570223428987355</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.06583764819917449</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.06670218446391914</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.06812461039586382</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.07001138992661941</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.07217874051580038</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.07454774549829402</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.07705466820740647</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.07964914582879196</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.08226500808004304</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.08487366104208074</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.08745063924463117</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.08997523425782912</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.09243002896431388</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.09480053975426297</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.09707493788132693</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.09924381830965295</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.1012999949930177</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.103272413846672</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.1051265265436017</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.1068597824642404</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.108471495533588</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.1099623422353098</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.1113689974544029</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.112658959391303</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.1138360926797443</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.1149050087789673</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.1158707560751411</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.1167387184494139</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.117479588823987</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.1181364289384404</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.118714308581722</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.1192185221821445</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.1196889393317716</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.1200942863242285</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.1204410345354958</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.1207353312889279</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.1209829215770161</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.1211891575812574</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>-0.1213590117413251</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +2201,135 @@
       <c r="E13" t="n">
         <v>-0.02759802352100434</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.0268654549613643</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.02716472349385474</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.02827109275219059</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.02997148500421062</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.03208763944736816</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.03447383445992266</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.03701370352335821</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.03958601055922184</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.04214223776303262</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.04462699129984224</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.04700119443256839</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.04916624034822284</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.05117544165749372</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.05301848024148789</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.0546930587037575</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.05620152367785714</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.05754944639770163</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.05874462144304442</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.0597963055501801</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.06071463761047531</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.06151019966829396</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.06228963520117516</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.06295761317992009</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.06352669852359351</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.06400716965101895</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.06440867196574104</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.06482234344201113</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.06516533348221994</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.0654476134153345</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.06567718177380169</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.06586129233637592</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.06600656044594083</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.06604848776607801</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.06607129817818248</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.06607794161168169</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.06607180150398881</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.06611884628370462</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.0661519090703749</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.06617490076206524</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.06619066014456373</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.06620154310387615</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.06620950679620415</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>-0.06621615237424618</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +2347,135 @@
       <c r="E14" t="n">
         <v>0.0549698417122308</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.07040934525030212</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0819990111949629</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.09031796219800722</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.09582148396525716</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.09900552401280618</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1002935210445311</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1000482410396078</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.09850370839150857</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.09600775836865272</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.09279126494751502</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.08904821479931641</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.08487608138656977</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.08049953429196993</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.07602544569873521</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.0715433174232329</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.06712541107205791</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.06282927177540047</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.05870000162228754</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.05477216406194543</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.05107138144315332</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.04761568657926739</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.0444163766717776</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.04146557188633329</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.03877065561496394</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.03633148125445233</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.03414431687065357</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.03218697849454881</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.03046109067176099</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.02895947145709499</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.0276710409152835</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.02658348634297929</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.02568374484660334</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.02498041842394819</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.02443596117290669</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.02403562274585672</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.02376617029178422</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.02359308157303426</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.02352910887359253</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.02356180605835487</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.02367839401600466</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.02386683379210326</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.02411592875602817</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.02441533852896467</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +2493,135 @@
       <c r="E15" t="n">
         <v>-0.03539772677973655</v>
       </c>
+      <c r="F15" t="n">
+        <v>-0.02681041207534346</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.02094460111183488</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.01756980074160704</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.01629231337793401</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.01678795636612646</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.01876173385817952</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.02194646893880667</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.02620174308800777</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.03119620090813982</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.03673733644404409</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.04265770103578612</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.0488909963476248</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.05520381458113544</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.06149608539317226</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.06768350871611252</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.07369728500230746</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.07948235778102498</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.08499573037092524</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.0902049539728137</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.09508677256220524</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.09962590502807026</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.1038113872705061</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.1076633853845378</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.1111786192859065</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.1143603907175124</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.1172159493574999</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.1197730211375727</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.1220365764721385</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.1240180930406824</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.1257322139908535</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.1271949713423937</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1284232950389203</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1294068145915237</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.1301900977346525</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1307921392852713</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.1312307817187298</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.1315527806063293</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.131743093704907</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1318176170857408</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1317919843317704</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.1316809042745928</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.1314980704876652</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>-0.1312561337999429</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +2639,135 @@
       <c r="E16" t="n">
         <v>0.3546482536492996</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.3689698533017933</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3799138323822298</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.3877704369846613</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3929958834519336</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.3959604533281181</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.3970002555146914</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3964192565735346</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3943558403986339</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.3912003647203644</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.3871785282764413</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.3824893403882939</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3771728141814386</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.3715427965918688</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.36573147160162</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.3598518970880772</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.3539996991071408</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.3482548335174435</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.34268320343565</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.3373381380407372</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.3322617503327078</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3274861883349802</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.3231097258489286</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.3190488854631965</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.3153161011363771</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.3119175336378507</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.3088541593860589</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.3061698052366342</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.3037955600577906</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.3017234759755585</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.2999427462182173</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.2984404077911785</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.2972018128576333</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.2961798528576039</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.2953955131015573</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.2948303844825002</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.294465924205668</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.2943085511579725</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.2943122771029202</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.2944594874019206</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.2947331283978247</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.2951169095728774</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2955953990142787</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.296154090313652</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +2785,135 @@
       <c r="E17" t="n">
         <v>0.5291830873072065</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.5311034954267054</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5307876305417669</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.528506427592714</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5248194387161914</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5200447858753082</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.514457265584022</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5082917255293757</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.5016841216896766</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.4949004700375321</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.4880801386123498</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.481338126636735</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4747482527646912</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.468433829208621</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.4624526349442253</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.4568464851973229</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.4516453723097102</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.4468691201958399</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.4425287248357959</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.4386275680053784</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.4351625292055638</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.4321250047219174</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.4294866258923472</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.4272371470141937</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.4253570905876425</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.4238270961542001</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.4226260017535826</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.4217212567019633</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.4210965445856025</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.420727280636936</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.4205905748244236</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.4206637463146982</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.4209244585695534</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.4213485441249387</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.421917018093605</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.4226109543384861</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.4234111708773469</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.4243099557896954</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.4252811445188339</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.4263078175719585</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.4273754164433562</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.4284708940785925</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.4295826041707196</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.4307002419458371</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +2931,135 @@
       <c r="E18" t="n">
         <v>-0.1003153670074103</v>
       </c>
+      <c r="F18" t="n">
+        <v>-0.1010371105492271</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.1028383575277525</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.1054417438556613</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.1088124159951043</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.1127741469794367</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.1171652813753388</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.1218415147620845</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1265872636892872</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.1313913882748239</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.136157180463559</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.140806303098762</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.1451871433700124</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.1493402430804704</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.1532289902296495</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.1568291250739726</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.160126183003083</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1631137629347285</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.1657920551794664</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.1681665654307683</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.1702470115216019</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1720463736674192</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.1736628379772997</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.1750306390504184</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.1761669907720404</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.1770894167254717</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.1778159580663266</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.1784338696282092</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.1788893168240283</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.1791997010899238</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.1793815858832254</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.1794509574123119</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.179423104883545</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.1792558505944563</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.1790243015056731</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.1787406531045316</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.1784163469242246</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.1781105520521705</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1777786057427728</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.177429613705701</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.177071438640711</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.1767109397137261</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.1763540341035119</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>-0.1760057508867276</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +3077,135 @@
       <c r="E19" t="n">
         <v>0.3867068402773971</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.385857387925402</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3836467451142404</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3800985727375382</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.3757159906804617</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3707072447181378</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3652554488247675</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3595181461325961</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3535172770347262</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3475262436530467</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.3416340082284941</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.3359113666821189</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3303853403269492</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3251653498303387</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3202779220942654</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3157387015735162</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3115559392738754</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3077318671699459</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3042637404163041</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3011447192254583</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.2983646279738542</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.2959106131633218</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.2936927051331145</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.2917655378915302</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.290111822549739</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.2887152599979226</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.2875588510641876</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.2865456380982817</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.285741041383582</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.2851263847820833</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.2846846408622874</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.2843991651310238</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.28425374602666</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.2843092558079442</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.2844658170508672</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.2847110846029587</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.2850324113364063</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.2853482022422794</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.2857259538764284</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.2861533624902563</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.2866199182358558</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.2871162218378648</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.2876338931125497</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.2881655212798454</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +3223,135 @@
       <c r="E20" t="n">
         <v>0.2505914865076299</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.265115630208196</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2760806413507693</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2839002466168403</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2888457637484241</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2913260831210302</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2917214190274029</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.2903801271617399</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.2875588935267677</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2835848386227362</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.2787241854736039</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2732081024252495</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2671600359347147</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.2608419185112827</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.254402760888697</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.247965910367593</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.2416323512869534</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.2354835949449793</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2295842232470632</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.2239841312090126</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.2187205076525434</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2138195883778662</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.2093286195550822</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.2052057238557651</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.2014563518213628</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.1980800834473636</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.1950715479446445</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.1924312687342546</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.1901254710839258</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.1881409201795822</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.186462079297028</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.1850716467630568</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.1839510406442158</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.1830814431628657</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.182445235445532</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.1820215432277984</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.1817897219949543</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.181726488174773</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1818162007574543</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.1820399686809031</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1823798104233235</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.1828187513952678</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.1833409001689887</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.183931498365025</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +3369,135 @@
       <c r="E21" t="n">
         <v>0.5529161032457814</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.5594980601377527</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5644275719578176</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5675694338478755</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.569390596358854</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5700366563926329</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5696523633741142</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5683773524021181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.5661348250915637</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.5632961143431368</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5599767932598043</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5562829596738413</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.552139185799942</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.5478420424468338</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.5434692398566106</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.5390875245340303</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.5347551288265269</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5305222335308251</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.526431349432857</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5225177511690036</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.5188099581389354</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5153302480967642</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5121750353200939</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.5092555529356773</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.5065791247554802</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.5041512663756167</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.5019738882928863</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.5000936205334893</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.498446720620008</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.4970265774418734</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.4958262156384932</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.4948370330380615</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.4940490076372148</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.4934218451713823</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.4929775866688658</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.4927040108244313</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4925874453268756</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.4926362636388196</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4928126528869929</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4931024965145283</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.4934928689038551</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.4939714014240563</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.4945263032325449</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.4951464187482328</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +3515,135 @@
       <c r="E22" t="n">
         <v>0.338628092830528</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.3449474523950066</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3487051633726559</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.350034038271101</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.349505224825238</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.347447485121459</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3441551313363422</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3398897116490421</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.334700455881516</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.3290119390326579</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.3229983766842405</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.3168080803333984</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.3104393472954318</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.3041695187970993</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.2980780281110302</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.2922288251676288</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.286671836605874</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.2814447677158239</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.276574728558355</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.2720796754739518</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.2679696930817723</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.264248139217722</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2609270053427962</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.2579657577285511</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.2553582058088005</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2530937362488964</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.2511586760376006</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2495299718834567</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.2481896517012668</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.2471208899272347</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.2463052431648035</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.2457235156920725</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2453561420807618</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.2451969482754549</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2452116756408058</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.2453810490486626</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2456866494205606</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2460997899242279</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.2466187551390737</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.2472269676497152</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.2479088219636121</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.2486499149817705</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2494370674024665</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.250258314278729</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +3661,135 @@
       <c r="E23" t="n">
         <v>-0.09920525227263274</v>
       </c>
+      <c r="F23" t="n">
+        <v>-0.09349585627713436</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.09047846273091339</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.0898394070223959</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.09103864635391577</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.09369526533436714</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.09748263830370185</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.1021218220369252</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.1074705225525333</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.1132046827795821</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.1191563575059044</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.1251879900423148</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.1312237381992893</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.1371068991583436</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.1427723550549993</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.1481702505574344</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.15326423660878</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.1580292504221685</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.1624496037127288</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.1665173741702428</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.1702310471461854</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.1735943617617266</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.1766627226650278</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.1794082980445053</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.1818415372465133</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.1839763907446987</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.1858287207457161</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.1874668083015518</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.188858011660453</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.1900193596631891</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.1909690114004948</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.1917252525724269</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.1923062022944581</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.1926832771028113</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.1929249333519888</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.1930475582866095</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.1930663884526411</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.1930351833226304</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.1929221770785766</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.1927408937877677</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.1925040453044702</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.1922232233600454</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.1919088990074306</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>-0.1915704555144596</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +3807,135 @@
       <c r="E24" t="n">
         <v>2.870873030616057</v>
       </c>
+      <c r="F24" t="n">
+        <v>2.68515007387785</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.519755756046924</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.368327421955708</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.234968080267949</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.117425854826142</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.013737877545068</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.922212887156169</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.840256433195668</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.768427690078685</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.705473722723034</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.650351860087039</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.602015762947687</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.560159452029179</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.524058882531287</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.493102517326091</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.466764638423474</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.444585678942875</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.426157451954305</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.411112174991304</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.399114434975854</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.389855401722385</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.38296419558672</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.378215532604501</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.375378982802905</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.374236300601064</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.374582023134678</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.376301258731555</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.379090180334295</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.382794724154727</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.38727037029705</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.392382870321098</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.398008240063923</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.403778635557092</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.409910115351471</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.416293398401918</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.422831636110322</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.429765230030763</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.436621975193867</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.4433531291114</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.449916931108193</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.456278428632073</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.462409016671349</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.468285966191849</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +3953,135 @@
       <c r="E25" t="n">
         <v>0.3615755740321197</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3534287647201805</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3461680981010521</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3398999883259403</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3341817334250234</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3290818792354546</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3245760569622603</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3206393964334207</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3173121241700899</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3145303579713484</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3122407265404716</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.3104211084402146</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3090485108533495</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.3081871824879467</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.3077104011117023</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.3075815373843553</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.3077688418962932</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.3082396581939291</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.3089607951067652</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3098992491771813</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3110228240435081</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3123006220241228</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3137388676848565</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3151739493761336</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3166837838086986</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3182534098287771</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3198624602372761</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3215228013947776</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.3231149648621681</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.3246974524428298</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.326263460830547</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.3278025315876393</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.3293054129126275</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3307382751771843</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.332167707321158</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3335418769349843</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.334853275978529</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.3361225741998934</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.3372916253292102</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.3383930723441075</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.3394302098726569</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3404044987867541</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3413176997467546</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0.3421719793307682</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +4099,135 @@
       <c r="E26" t="n">
         <v>0.2651683340768907</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.2505986351453365</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2367767958014343</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2236343842895827</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.211229949999497</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.1997260304384844</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1891485067221994</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1795034690549892</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1706809740881481</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1628704489023968</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1559953361008465</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1500134703398474</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1448097464951086</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.140561412998369</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1370862319571764</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1343125646235237</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1321771955009894</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1306181491725062</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1295748687126299</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.128988826099882</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1288040342030459</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1289674360401911</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1294208387406433</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.1300026194259081</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1307949183560758</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.131769237255954</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1328910964350767</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1341064086605143</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1353255811843011</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.1366098425637096</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.1379427960788403</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1393041766019384</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.1406756610972825</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.142068878796923</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1434911941517291</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.1448760452674432</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.1462101073725127</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.1474600153983221</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.1486134575196749</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.1497046249657733</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1507332152907382</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.151697291521718</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.1525957819581028</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.153428559243511</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +4245,135 @@
       <c r="E27" t="n">
         <v>0.1459450407313442</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.1333685835702594</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1213859594583284</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1100061657879013</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.09919643219070645</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.08917540923507161</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.07997995026053761</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.07162115602227569</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.06396810700920572</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.05724392252818812</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.05136137953263058</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.04628083292788152</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.04183194405553582</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.03828912881116656</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.03543750151016366</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.0332082449573291</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.03154365087475397</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.03038734500692132</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.0296842561635622</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.02938119876480723</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.02942736723704213</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.02977470675912307</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.03044304787792</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.03116024158638576</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.03205124274553767</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.03309423116668905</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.03425842127062846</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.03555408511610365</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.03680238929417825</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.03809501224167679</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.03942041125256377</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.0407609810271737</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.04210071977283925</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.04340275876918957</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.04474880419907341</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.04605613002567294</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.047311323097231</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.04852603861431823</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.04962864448286949</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.05066693513569057</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.05164263778266698</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.0525547582051188</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.05340293092641359</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0.05418757988173459</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +4391,135 @@
       <c r="E28" t="n">
         <v>0.939472501508283</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9174659769223826</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.8991804359369214</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8839679378890346</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8713720666873264</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8610664752189106</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8527016808678191</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8459854703075709</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.840626168270962</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8365294290414476</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8334851065839556</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8313462872287661</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8299069306733481</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.8292504103551792</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8291864884492568</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.8296278183882444</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.8305033758439214</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.8317501375679437</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.8333113807721635</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.8351358038841569</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.8371769202295941</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.8393926159270949</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.8418544190918775</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.844310714996298</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.8468326723321539</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.8494018412395642</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.8519952748447774</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.8546906754489377</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.8572920373782238</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.859856310467381</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.8623769233077609</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.8648438766337095</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.8672484576186921</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.8694925533797861</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.8717164232747123</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.8738682854600389</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.8759399425587987</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.878013244827355</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.8799603354790011</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.8818147161647162</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.8835811423621014</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.8852624757885466</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.8868617765099688</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0.8883824170857969</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +4537,135 @@
       <c r="E29" t="n">
         <v>2.88910886979469</v>
       </c>
+      <c r="F29" t="n">
+        <v>2.734009690470457</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.591586551357822</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.459032981025272</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.339210436443194</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.231275811911545</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.134418768913111</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.047880556081371</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.970753233131611</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.902996186249791</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.8438514230428</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.792632338699679</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.749228932937716</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.71268674501891</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.68237054827886</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.657706253435553</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.638159782494798</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.623230359763684</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.612446593660946</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.605363987891091</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.601563421034181</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.600650279775564</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.601713397190121</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.604962909275275</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.610104664627365</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.616850191068657</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.624930185270056</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.633827802110584</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.643591980021687</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.654032832076743</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.664968222440097</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.676232801962431</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.687678331514432</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.699173253573373</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.710615139217005</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.721890478233282</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.73290818826787</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.743722226444054</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.75411470827965</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.764047699370817</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.773489238716601</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.782416512332526</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.790815209352481</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.798678613614749</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +4683,135 @@
       <c r="E30" t="n">
         <v>0.8014581976470134</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.7771995122991718</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7561896664169243</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7380797395916802</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7223226717312156</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.708762118883194</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6971488390925996</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.6872664619054986</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.6789709963820544</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.6721293001753498</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6665471010405601</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6620959726208966</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6586589999608483</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6562800464191062</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6547215668285796</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6538840529883063</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.6536836826562271</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.6540422966850608</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6548864638412024</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.656147368141012</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.6577608094488792</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.6596672250700859</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.6618569406909837</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6640895478471908</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.6664654274584925</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.6689553682932737</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6715235483147998</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.6741807165320349</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.6767499561975342</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.6793095983576759</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.6818465655991126</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.6843431067501961</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.686783599329574</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.689113940235522</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.6914340955634416</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.6936686704498475</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.6958051269377822</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.6978761136096964</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.6997896740301002</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.7015918697380426</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.7032875838742576</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.7048792368262646</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.7063697721671783</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0.7077627907561352</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +4829,135 @@
       <c r="E31" t="n">
         <v>-0.3850175551437905</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3917616019522041</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3989244344572175</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.4060001688019543</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.4132673254803982</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.4203487417198417</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.4270740889295008</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.4333251428647626</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.4389674540235995</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.4439406843915995</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.4482696928122816</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4519502453873866</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.4549770971894052</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.457233194115538</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4589092523847147</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4600616783965956</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.4607411938229675</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.461000602319547</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.4608935263849079</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.4604728834833416</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.459789712297669</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.4588923263616185</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.457857744720906</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.4568408860332876</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.4557225651625162</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.4545249963754228</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.453278199825347</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.4520487895168011</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.4509205727076457</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.4498039696910007</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.448708812907703</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.447650227411095</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.4466412859159845</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.4456469179520388</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.444661361747038</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.4437601479617879</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.44295155608997</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.4422827214061134</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.4417482348770908</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.4412983799824992</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.4409281548234804</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.4406352773262961</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.4404169677273349</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>-0.4402698198232043</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +4975,135 @@
       <c r="E32" t="n">
         <v>0.6802423115215567</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6619727324253266</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6455372455716795</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.630604842042673</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.617310627837744</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.6056373947934414</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5954657631141885</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5866744135708775</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5790177473285619</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.572622249551974</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5673303924279649</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5630294384038755</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5595404024826834</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5569834888925955</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5551595012705604</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.5539722937119024</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5533408115566714</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.5531915119170624</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5534572642734487</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5540768452955547</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.5549945407155901</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.5561597995039572</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.5575443004802171</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.5589857141696569</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.560552202706081</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5622197923619378</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.5639603330470516</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5657575058940608</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.5675083870533443</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5692669317830149</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.571022013109059</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5727594649739248</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.5744668884417352</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.5761273090773469</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.5777839261929815</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5793832639743109</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.5809166336079629</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.5823873620038297</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.5837537926804992</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5850476701517897</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.586271483285682</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.5874261436488908</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.5885130836972321</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.5895343213226241</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +5121,135 @@
       <c r="E33" t="n">
         <v>0.831984200708168</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8205205708479152</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8105720214458592</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8019837561698917</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.79451409398184</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7881381418211956</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7827490678434711</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7782479905785928</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.774521963258808</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7715695096126826</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.7692813642188722</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.767588456153227</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.7663840367008454</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.7657597478709334</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7655647209157997</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7657411655682984</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.7662415480292573</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.7670219522649684</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.7680415197976805</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.7692623853708038</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.7706496508639634</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.7721713521260495</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7738437747754027</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.7754965968750466</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7772050637707664</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7789560428676103</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.780731535650518</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.7825507475763952</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.7842936714641668</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.7860180105329776</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.7877190245985258</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.7893884388837684</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7910190528230031</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.7925773621446279</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7941323630100117</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.7956357209659237</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.7970812986509975</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.7984908162961724</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.7998070480799797</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.8010619184817368</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.8022591740802638</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.8034006973721143</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.804488548643956</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0.8055250721682895</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +5267,135 @@
       <c r="E34" t="n">
         <v>-0.7718198371221494</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7828635533775749</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.7932773828494151</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.8028536996653002</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.8118349222463499</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.8200733989058312</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.8275523960223106</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.8342769136971816</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.8401748849487259</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.8453161225623794</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.8497750757150938</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8535944734879097</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.8567492630606611</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.8592510173534254</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.8612592091681359</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.8628322602889269</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.8640204028084887</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.8648721429621049</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.8654340835122026</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.8657503979113662</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.865862426711823</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.8658084081823472</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.8656707041889576</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.865535069713771</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.8653186184667325</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.8650387459706201</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.8647180123676584</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.8644178880750205</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.8641862458440791</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.8639595045795033</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.863744778555409</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.8635528339789793</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.86339288502211</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.8632317444823558</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.8630701147722293</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.862962254636193</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.8629143696827283</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.8629685074910258</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.8631160827260547</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.8633209060217244</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.8635787430993116</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.8638873810646612</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.8642443317432975</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>-0.8646467352150184</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +5413,135 @@
       <c r="E35" t="n">
         <v>0.8277190872695269</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.8226714098087039</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.8187945000849899</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8158625881714286</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.8138806139291604</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8127087451799986</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8122204882055597</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.8123029736362327</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8128292187017767</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8137548838167451</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8149966624566203</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.816483791741819</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.8181467572348589</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.819948270957732</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.8218429218503855</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.8237936720104345</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.8257703496062935</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.8277485442220049</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.8297086946997253</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8316353258626523</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8335164076669802</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.8353428153818436</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.8371155146451358</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.8388242920471576</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.8404661417793665</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.8420392665897467</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.8435430566973456</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8449878166942986</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8463655266833801</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.847678008194528</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8489274982336132</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8501166722078776</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.8512485489140585</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.852314725672965</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.8533311766145882</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.8543012870999294</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.8552285831443603</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.8561285549286685</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.8569911997671715</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.8578202381694721</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.8586191857879873</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.8593913911170158</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.8601400204813723</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0.8608680444645247</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +5559,135 @@
       <c r="E36" t="n">
         <v>0.7776402123697147</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.7718607185413308</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7676924048563092</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7649144094700369</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.763354223560377</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.76281180180402</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.7631113363580931</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7640990099292344</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7656726478130619</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7676841572754464</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7700292214693112</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.772619463458207</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7754093287595425</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.7782979486765838</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7812331755778383</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7841721263485781</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.7870800704087882</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.7899292286600925</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.7926977428641364</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.7953688028183636</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.7979299035021118</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.8003722085116699</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.8026876596140888</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.8048816716534068</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.8069519242566164</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.8088984219266507</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.8107228164040698</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.8124326640235404</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.8140298756287666</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.8155186324354646</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.8169041069829217</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.8181920338029141</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8193885379748128</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.8204926281791262</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.8215187982250612</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8224736500507435</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.8233636078465064</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.8242021158361957</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.8249865595213841</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.825723197606559</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.8264180716001059</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.8270768654503985</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.8277048798949955</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0.828307022458451</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +5705,135 @@
       <c r="E37" t="n">
         <v>0.7249081649691831</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.7213571495430242</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7188109007816749</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.7173204751929708</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.7166952956838751</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.7168423736765597</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.7176661735052511</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.7190727407371101</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7210864999675107</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.72348907410943</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.7262012412897793</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7291515441139964</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.7323749928513688</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.735690430387181</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.739049918579756</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.7424127238755333</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.7457441848271682</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.7490151637690462</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.752201560851854</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7552838509162021</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.7582466410295294</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7610782490131232</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.7637406331238211</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.7662711019571423</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.7686650960498493</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.7709198734338997</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.7730348038960978</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.7750043704276735</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.7768437066999424</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.7785562391903514</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.7801461137161931</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.7816184104150403</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7829789740695441</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.7842267493515299</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.7853762463637814</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.7864343769327744</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.787408505463828</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.7883173329198935</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.7891544841234606</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.7899277796444951</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.7906445423585097</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.7913117421550779</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.7919359722290414</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.7925234216318434</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +5851,135 @@
       <c r="E38" t="n">
         <v>0.6788916027032232</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.674497292108853</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6703644329074062</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6665157689085366</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6630866492471635</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.6601011934423469</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6575669731064774</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6554789905279786</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6538253840615761</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6526024571613142</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6517785166517824</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6513197168830364</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6512288597758548</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.6514411684548019</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6519184306830828</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.6526245145970999</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6535256416744561</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6545905024566835</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.655790298341397</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6570987325939244</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.6584919645370295</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6599485369374816</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.6613988555474331</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.6628833070925392</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.6643869057473678</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.6658965224303093</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.667400723385457</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.6688521513577373</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.6702864618829313</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.6716960931085227</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.6730748183634174</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.6744175923216772</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.675720445388724</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.677005227353745</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.6782398465231745</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.6794237920545773</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.6805571020944297</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.6816231603004378</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.6826438132359633</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.6836197483717896</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.6845521319384061</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.6854425020322386</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.6862926919021686</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0.687104763020126</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +5997,135 @@
       <c r="E39" t="n">
         <v>0.5961344625849293</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5947757585157186</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5940823021264902</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.594005780440478</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.5944185141945841</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5952358716609968</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.5963820522102352</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.597789764068547</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5994441518018508</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.6012398983394281</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.6031320119035621</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6050822534289925</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6070938532990861</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.6090929995719891</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.6110590287689656</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.6129753627639698</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.6148290122293868</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.6166100999005362</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.6183114387182613</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6199281592980037</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6214573795909382</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.622897910831533</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.6242405543372034</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6255012560937196</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6266812748517541</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.6277828676004245</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.6288090546979289</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.6297598525929333</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.6306448430255883</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.6314679168891213</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6322332914712554</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.6329453711342699</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.6336086579597717</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6342296359297845</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.6348111630669949</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.6353576071129344</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.6358731897621241</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.6363593027834664</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.636821422205901</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.6372634377212301</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.6376889656703713</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.6381013262040708</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.6385035422763259</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.6388983435590333</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +6143,135 @@
       <c r="E40" t="n">
         <v>0.7861545336966277</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.7822432174543813</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7790759555667852</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7765279807011346</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7747091452870541</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.773554297370177</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7729934679870257</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.7729551552668698</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7733445842909364</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.774134747231531</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7752567801497312</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7766480316377642</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7782629194848418</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.7800405311688742</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.7819357962677755</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.7839094143079348</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.7859279590877255</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7879633211171195</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.7899921328848228</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7919952319361016</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7939571670497887</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.7958657470944187</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.7976970347829754</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.7994672402392277</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.8011695191653836</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.8027997922023246</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.8043557115368125</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.8058315721468522</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.8072373617721704</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.8085728777106302</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.8098394212401445</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.8110390896675255</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.8121745815210706</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.8132454507878396</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.814257297630601</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.8152146075028155</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.8161215846286015</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.8169896496997419</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.8178154674925345</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.8186028791208455</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.819355887933076</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.8200783747409487</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.82077404501812</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0.8214464022760153</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +6289,135 @@
       <c r="E41" t="n">
         <v>0.5497336081773901</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5516944363177582</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5536656955013297</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5557686037148152</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5578291120360874</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5598518376654404</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5618400694938817</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5637963094766588</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.5657795833051932</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.567714735073568</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.5696047511210541</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5714513598582984</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5732825119922512</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.5750607055226775</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5767858025549117</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.5784579358059769</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5800767847073728</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.5816417634192746</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5831522223568337</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5846076011862348</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.5860075368666975</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.5873519346412739</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.5886388641465199</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.5898726036754612</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.5910548469045481</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.592186456275844</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5932685218077136</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.594302368569967</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5952905147033436</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.5962354465174196</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5971390120363145</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.5980031526409167</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.5988299323048168</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.5996212136750825</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.6003789018581465</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.6011048836378388</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.6018015781899825</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.6024716339866721</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.6031177909335318</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.6037425910916362</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.6043481330452636</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.6049363997777386</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.6055092767738497</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.6060685466315243</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +6435,135 @@
       <c r="E42" t="n">
         <v>0.6649564599625521</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6558093227191552</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6479648916808651</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6413180042146603</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.6359345599907471</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6317116192467114</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.6285407565715209</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.6263123405326919</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.6249557738911586</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.6243541152038873</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.6243991166320054</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.6249917536238169</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.6261184795840946</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.6276229496879915</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.6294282668943412</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.6314666768809015</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.6336791417268575</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.636014488071684</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6384286016319688</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.6408836992733502</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.6433476736292687</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.6457935022018554</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.6481338715919315</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.6504277726522741</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6526588254051161</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.6548144011269671</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.6568847240345215</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6588189126440154</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.6606643115279769</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.6624163064021982</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.6640724874994599</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.6656320128206137</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.6670953605289868</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.6684914427460164</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.6697907620312042</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6709976633788797</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.672116721272488</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.6731332404112277</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6740743752727899</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.6749449881603048</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.6757503433402638</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.6764958218316683</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.6771868186840675</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0.6778286681446847</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +6581,135 @@
       <c r="E43" t="n">
         <v>0.6892563474685864</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6861373047519008</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6834177095765872</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6811326377885791</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.679295123072039</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6778940961311497</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6769090392364857</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6763130732225532</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.676111826562081</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.676240359529542</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6766613033933822</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.677338094156631</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6782848960582778</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6794160009273155</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6806987030299919</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.6821031627970436</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6836023599090534</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.6851720200276563</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.6867905116337685</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.688438721734848</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.6900999176380813</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.6917596000770052</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.6933691039941108</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.6949614978456308</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.6965274712372288</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.6980592894492013</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.6995506803852105</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.7009735158807271</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.7023523487485938</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.7036839427759444</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.7049660468386183</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.7061972943751788</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.7073770970541515</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.7085183134795425</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.7096059913259722</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.7106417518801839</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.7116275754524608</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.712557986285091</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.7134446962210923</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.7142900873761101</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.7150967105023704</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.7158672300554313</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.7166043733000076</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.7173108862679861</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +6727,135 @@
       <c r="E44" t="n">
         <v>0.6888406806721242</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6872344390818251</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6863477855355051</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6861777290673134</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6865902785209514</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6875025914707272</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.6888346888222431</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6905115972310837</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.6925303744639013</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.6947500373728106</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.6971141717516151</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.6995738685617305</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.7021391317996986</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.7047054113050638</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.7072442823241825</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.7097327776174135</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.7121525232928947</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.7144891449149718</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.7167317529379348</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.7188724853346028</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.7209060993401697</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.7228296061624798</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.7246355770800378</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.7263380806459963</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.7279376859838658</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.729436066594677</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.730835985812112</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.7321461780168597</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.7333682102573124</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.7345064751305853</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7355657059846709</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.7365509889251894</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7374676520839638</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.7383103846083274</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.7390968346279694</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.7398322852181966</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.7405220311521599</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.7411822575649537</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.7418043093641641</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.7423934118647999</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.7429543966568455</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.7434917528201462</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.7440096225171645</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.7445117979214962</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +6873,135 @@
       <c r="E45" t="n">
         <v>0.6858407132296093</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6809666095614659</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6778469944496885</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.6763491414678697</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6761805714431933</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.677120709893836</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.678970777461303</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6815529606896001</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6848106659204145</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.6884876284648682</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.6924610259810511</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.6966260393311184</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.7009737802256214</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.7053250210126827</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.709621536941222</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.7138158033601085</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.7178702646837527</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.7217559967211674</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.7254514915825183</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.7289415960301244</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.7322165833265684</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.7352713386216557</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.7380891368202998</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.7407000375819507</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7431052626475529</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.7453095028311086</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.7473195504701788</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.7491427720248383</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.7507948650647812</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.7522845579960298</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.7536220861889465</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7548182905620647</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.7558843429841489</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.7568276229603903</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.7576639333591417</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.758404791059873</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.7590609952521318</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.7596457024937422</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.7601635566267478</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.760624217372351</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.7610369883629668</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.761410504201239</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.7617526964276349</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0.7620707915618544</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +7019,135 @@
       <c r="E46" t="n">
         <v>-1.299969571395362</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.303158757722326</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.306804037833155</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.310571209800177</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.314481718642512</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.31843606209194</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.322362692823609</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.326211817382247</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.329732882762146</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.333129160764598</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.33639171723527</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.339518478230473</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.342276899829971</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-1.344922022416235</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1.347462356300591</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.349907192115082</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1.352266022030022</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1.354548114008665</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1.356762227341389</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1.358916434706986</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1.36101802234151</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.363073446674897</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.365283594221452</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-1.367442626289484</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.369555883604006</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.371627988705795</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-1.373662855399707</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-1.375829646197262</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-1.377953228565913</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-1.380036993355644</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-1.382083776581074</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-1.38409589742635</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-1.386075223038155</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-1.387869138946087</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-1.389642285924621</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.391394396271421</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-1.393125128940715</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-1.394983942225554</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-1.396812656156623</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-1.398611792536187</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-1.400381717434137</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-1.402122672290264</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1.403834810297211</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>-1.405518227536288</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +7165,135 @@
       <c r="E47" t="n">
         <v>-1.011670503016977</v>
       </c>
+      <c r="F47" t="n">
+        <v>-1.014460570461771</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1.017586137491803</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-1.020775995471848</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1.024046779189928</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1.027321780504574</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.030546272682343</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.033683173931659</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.036528167964211</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.039253127740537</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-1.04185383825024</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.044331610419535</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1.046494860462486</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-1.04855924321526</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-1.050533061937777</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1.052425714902456</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-1.054246505690979</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-1.056004278862271</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-1.057707221712242</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-1.059362752626659</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-1.060977469219376</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-1.062557138758744</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-1.064270449148863</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-1.065943994019424</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-1.067583223516543</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-1.069192085544768</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-1.070773820116949</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-1.07247024943436</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-1.074133607930225</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-1.075767256349039</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-1.077373472793632</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-1.078954038201474</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-1.080510338870849</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-1.081914159206509</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-1.083303928849989</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-1.084678794145487</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-1.0860382267173</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-1.087507352661857</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-1.088952959748272</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-1.090375607099904</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-1.091775460316624</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-1.093152564392666</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1.094506895312685</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>-1.09583838884687</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +7311,135 @@
       <c r="E48" t="n">
         <v>-0.8857008608080521</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8874891041700131</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8895826048452</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.8917031133106005</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.8939159923792914</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.8961550428188768</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.8983739493553793</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.9005423403464583</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.9024553870397012</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.9042981939994954</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.9060688024582213</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.9077700134196082</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.9092119443011177</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.9106108354980611</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.911974177920414</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.9133101185341661</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.9146263147438537</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.9159296185384468</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.9172259300511663</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.9185201390453896</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.9198161257805281</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.9211168023643543</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.922587164550788</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.9240513382963929</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.9255119437530992</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.9269701063818698</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.9284262819690061</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.9300213935942393</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.9316029501269951</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.9331719168204716</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.9347282815572078</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.9362716526649496</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.9378013714358827</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.9391825634740852</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.9405571246492193</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.9419224629997381</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.9432764730560992</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.9447489701690339</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.946198788673148</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.9476254756510438</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.9490283143546268</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.9504065901769134</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.9517596351813526</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>-0.9530868495521414</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +7457,135 @@
       <c r="E49" t="n">
         <v>-0.6481311009817041</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6496185389934366</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.6513951478836963</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.6532303803597744</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.6551418439347638</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.6570677393752106</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.6589660685022988</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.6608100736290635</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.6624368205032977</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6639899212673099</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.6654697865248395</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6668806335893989</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.66806949702263</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.669213060579852</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.6703196482727403</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.671397474156755</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.672454014265475</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.6734958185687839</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.6745284394151733</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.6755564256441017</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.6765833597572972</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.6776119227478812</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.678778018597001</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.6799372417808827</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.6810916123552742</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.6822421666867393</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.6833893826715969</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.684648703528822</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.6858954676786998</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.6871303731334668</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.6883534929131467</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.6895645872882935</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.6907631869691957</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.6918394801178017</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.6929089160747217</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.6939695316581174</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.6950196514956</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.6961649211575175</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.6972908095659929</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.6983969167163215</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.6994827077470546</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.7005476511528808</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.7015912508046031</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>-0.7026130643787193</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +7603,135 @@
       <c r="E50" t="n">
         <v>-0.06007809055728883</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.06194571318548454</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.0638795925961437</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.06579956860299541</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.06769029832427727</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.06952611250063002</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.07128898429647293</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.07296707977257612</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.07448216010553885</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.07589943997672696</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.07722001661711718</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.07844695604751152</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.07949744700099692</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.08046597395366796</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.08135894313648706</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.08218291512996828</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.08294427052383348</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.08364908039378979</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.08430303168848073</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.08491138543068807</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.08547895820459153</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.08601012028486553</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.08659126955534274</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.08713764212101585</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.08765285936261964</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.08814001569026113</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.08860185962417176</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.08911285317650697</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.08959814975747417</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.09006018700569651</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.09050100853031744</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.0909224008801689</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.09132592534740738</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.09164501535779443</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.09195308102639417</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.09225058830024968</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.09253800065936327</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.09288177705353999</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.0932124052079476</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.09353063525426605</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.09383704780655637</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.09413212338731604</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.09441626261776627</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>-0.09468980069803773</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +7749,135 @@
       <c r="E51" t="n">
         <v>-0.8730424146209089</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8747405527395887</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.876499913815136</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.8780835924229078</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.879606748825872</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.8810443958871995</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.8823852843892194</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8836285175724414</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8845957976552907</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.8854951799248418</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.886340346272154</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8871460777122295</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.8877441143565894</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.8883490127607416</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.8889713423865258</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.8896208007793942</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.8903053037145068</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.8910309565873568</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-0.8918021473732711</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.8926216818047403</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.8934909405370717</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.8944100466387134</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.8955151876772152</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.8966535285757375</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.8978250640651303</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.8990280824647895</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.9002601788266589</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.9016345804246</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.9030223493008058</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.9044218921912879</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>-0.9058306289587166</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>-0.9072457068662868</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>-0.9086641364532875</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>-0.9099726978083384</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>-0.9112851832626194</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.9125973177286111</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-0.9139055013695976</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>-0.9153158047519727</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>-0.9167104719575171</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>-0.9180876409576709</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-0.9194453133217189</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-0.9207816526367427</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-0.9220950216264588</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>-0.9233839926412364</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +7895,135 @@
       <c r="E52" t="n">
         <v>-0.8730424146209089</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8747405527395887</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.876499913815136</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.8780835924229078</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.879606748825872</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.8810443958871995</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.8823852843892194</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8836285175724414</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8845957976552907</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8854951799248418</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.886340346272154</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8871460777122295</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.8877441143565894</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.8883490127607416</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.8889713423865258</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.8896208007793942</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.8903053037145068</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8910309565873568</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.8918021473732711</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.8926216818047403</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.8934909405370717</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.8944100466387134</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.8955151876772152</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.8966535285757375</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.8978250640651303</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.8990280824647895</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.9002601788266589</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.9016345804246</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-0.9030223493008058</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-0.9044218921912879</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-0.9058306289587166</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-0.9072457068662868</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.9086641364532875</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-0.9099726978083384</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>-0.9112851832626194</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.9125973177286111</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-0.9139055013695976</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>-0.9153158047519727</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>-0.9167104719575171</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>-0.9180876409576709</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-0.9194453133217189</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-0.9207816526367427</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-0.9220950216264588</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>-0.9233839926412364</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +8041,135 @@
       <c r="E53" t="n">
         <v>-1.145511747094458</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.148146558170702</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.151169087752595</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1.154228391717329</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.157449169580246</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.160745338300271</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.164051306078426</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.167318892969596</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.170275312098021</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.173150316590298</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.175929248163356</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.178605002589048</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.180932162443628</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-1.183173144286131</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-1.185331814685189</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.187414393981191</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-1.189428092940823</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-1.191380483602663</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-1.1932790768928</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-1.195131031643875</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.196942962274333</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.198720821304549</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.200672041679566</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-1.202583004196274</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.204459264470593</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-1.206305049571053</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1.208123861623015</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1.210093389971882</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-1.212028192504424</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-1.213931692688672</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-1.21580631885695</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-1.217653965529871</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-1.219476083578265</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-1.221108574280562</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-1.222728320874315</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.224334240343167</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>-1.225925461234128</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>-1.227662478433135</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>-1.229373289323163</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>-1.231058314085151</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-1.232717619306153</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>-1.23435114036535</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-1.235958732028204</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>-1.237540200673493</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +8187,135 @@
       <c r="E54" t="n">
         <v>-0.1831320429489653</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1840419089537963</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.1849705820359121</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.1858211200166353</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1866551086065836</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.187467387917741</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.1882559106928736</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1890210899178708</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.1896692589885925</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.1903030391668988</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.1909265454128002</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1915438834944455</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1920609684991749</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.1925851612840486</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.193118732006166</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.193663583757752</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.1942209156011523</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.1947912626112</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.1953745737102104</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1959702952536304</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.196577454225168</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.1971947381112143</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.1979029336852164</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.1986120554885743</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.1993211880467048</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.2000288735544801</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.2007335517985178</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.201507475115092</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.2022705730792014</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-0.2030221101312378</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>-0.2037610469459883</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>-0.2044863450566008</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-0.2051970101607967</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-0.2058186158456901</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>-0.2064277969560581</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.2070231406994009</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-0.2076035927951362</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>-0.2082423881967508</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>-0.2088609991348528</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>-0.2094593571494495</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-0.2100373278179768</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>-0.2105948397540991</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-0.2111318956835026</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>-0.2116485724397525</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +8333,135 @@
       <c r="E55" t="n">
         <v>-1.020184181884121</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.024009490170446</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.028178437864981</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1.032481929934821</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.036846177918789</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-1.041186954715519</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.045442544524026</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-1.04956988603145</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.053399828816753</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.057046385381329</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-1.060504907172147</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.063777209257075</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-1.066690768777283</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1.069434623842624</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-1.072021439045466</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.074465117602797</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-1.076779410727335</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-1.078977493484231</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-1.081071732909415</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-1.083073555605485</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-1.084993383760096</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1.086840619365927</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.088801328757481</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.090692199039656</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.092521359593345</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.094295221484535</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.096019387992365</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.097855390860381</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.099639046383289</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.101375802794054</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.10306983554598</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.104724715555511</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-1.106343512628991</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-1.107780785223286</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>-1.109197534290045</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-1.110593905949025</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-1.111970356100901</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>-1.113470788621556</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>-1.114942518088393</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>-1.116387258628394</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-1.117806154628338</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>-1.119200103231696</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-1.120569817527769</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>-1.121915864176622</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +8479,135 @@
       <c r="E56" t="n">
         <v>-0.8970032743987549</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.9008008072709904</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.9046323645268568</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.9084000526844068</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.9120498436460007</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.9155555272088534</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.9189041672748134</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.9220918162447526</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.9250121253895847</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.9277722746988372</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.9303853726832417</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.9328647843885148</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.9350864003655175</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.937202819780602</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.9392279537014271</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.9411735093428435</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.9430495798873818</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.9448647988797501</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-0.946626476388003</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.9483407392091929</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.9500126698693455</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.9516464396516684</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.9533714697609186</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.9550561339305911</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.9567027376509865</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.9583136351480795</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.9598907856551382</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.9615450300118451</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-0.9631618694745578</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-0.9647426531657667</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>-0.9662888325645451</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>-0.9678016460559722</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.9692821351934456</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.9706276632127612</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>-0.9719476834349196</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.9732425015842662</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>-0.9745122019308005</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>-0.975858633914843</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>-0.9771757621931434</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>-0.97846402479504</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.9797239779638025</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>-0.9809561543486173</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-0.9821610659471628</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>-0.9833392152057499</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +8625,135 @@
       <c r="E57" t="n">
         <v>-0.9542675094321937</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9543935880330849</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.9554144844000403</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.9571074342593793</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.9593991982623794</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.9621701910968691</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.9653175729383883</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.9687535687584453</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.9722889189702035</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.9759741264888003</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.9797552293261755</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9835871688700131</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.9873016065748713</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.9909992310931113</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.9946540707053841</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.9982454487796986</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-1.001756735599524</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-1.005174741806643</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-1.008489243002124</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-1.011692578133953</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-1.014779304130414</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-1.017745895470022</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-1.020715236945122</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-1.023557907173386</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-1.026275133121396</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-1.028868578497433</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-1.031340753255784</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-1.033808065545787</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-1.036156500368979</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-1.038391019339</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-1.040516491720431</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>-1.04253800959167</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-1.044460837586445</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-1.046179243132055</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-1.047815105114112</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-1.04937304131965</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-1.050857967623029</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-1.052385280269227</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-1.053843728341827</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-1.055238763093294</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-1.056575365422843</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-1.057858222470879</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1.059091738717385</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>-1.060280036414368</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +8771,135 @@
       <c r="E58" t="n">
         <v>-1.125298758727414</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.121802486509429</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.118984050718408</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.116738421914668</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.115219450713102</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.114393370980957</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.114214775641263</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.114630720425901</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.115487802482485</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.116844179940183</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.118635360940151</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.120799614354097</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-1.123206768137855</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-1.12588193117578</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-1.1287722590698</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.131829567944646</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-1.135010691614293</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-1.138277225704332</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.141595219336493</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-1.144934866244175</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-1.148270203549391</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.151578820933744</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-1.154902474323085</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.158168574837707</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.161362648884237</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.164473357719479</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.167491635713836</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.170477163527578</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.173360653185237</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.17613750814084</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.17880511810074</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.181362226493402</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-1.183808733417218</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-1.186065327503619</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-1.188214106810762</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.190258260620795</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-1.192201204657228</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-1.194134776087018</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-1.195973140672869</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-1.197720446088874</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-1.199381321071181</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-1.200960580200003</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1.202463130203776</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>-1.203893902349691</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +8917,135 @@
       <c r="E59" t="n">
         <v>-0.8246449562932444</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8228671358572568</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.8212466953017729</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.8197175797171543</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.8184699550649095</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.8175258569339947</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.8168939613199877</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.816573156401216</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.8164483974508938</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.8166295687142919</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.8170959708738901</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.8178250116450079</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.8187069097374122</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.8198127707080295</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.821115914855743</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.8225907445865555</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.8242128088698399</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.8259589326175124</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-0.8278073138382321</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.8297375890108496</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.8317308724282251</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.8337697740748673</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.8359093543379417</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.8380637364271698</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.8402203773911925</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.842367907453044</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.844496224444242</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.8466701542898697</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-0.8488075582216434</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-0.8509020403519956</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-0.8529481272566338</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>-0.8549412955674058</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.8568779129317281</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.8586696083743357</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-0.860402005952418</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-0.8620736473162676</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-0.8636837622005578</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.8653247730999606</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-0.8669011559091835</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-0.8684138251556998</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.8698640431460875</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-0.8712534000962415</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.8725837605100928</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>-0.8738572115376886</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +9063,135 @@
       <c r="E60" t="n">
         <v>-0.4571563272401976</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.4540684652347541</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.4512853317771747</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.4488397148586686</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.446804858113074</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.4451962619595811</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.4440135673993926</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.4432450953762896</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.4428580932803137</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.4428440608096355</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.4431715733957086</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4438073769385288</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.444716688523803</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.4458632946455435</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.4472125835166453</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.4487318717091835</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.4503903173649837</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.4521591127767924</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.4540116251840714</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4559234750822427</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.4578725633045139</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.4598390573217295</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.461821258920329</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.4637936298440233</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.4657426585562788</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.4676563083682407</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.4695243315487553</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.4713683910397157</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-0.4731544146642327</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-0.4748768218978241</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-0.4765310473362898</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-0.4781137188227209</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-0.4796225626299339</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.4810093591681114</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-0.4823205554342761</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-0.4835564813814634</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-0.4847183295783991</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-0.4858631378623828</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-0.4869361848519425</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-0.4879402722054974</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.4888783729832741</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-0.4897536912746636</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.4905696057341423</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>-0.4913296107839423</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +9209,135 @@
       <c r="E61" t="n">
         <v>0.3777119023157158</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3788097081408667</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3797643463367218</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3806086490139382</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3813132597602611</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3818920842541983</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3823599509628812</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3827314802279962</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3830399493568454</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3832757336183213</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.3834519501876258</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3835799570281063</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.383687582778005</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3837645660131186</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3838189124990867</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3838571241971226</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3838846403034653</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.383906026819996</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.383925117793904</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3839451291114308</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.3839687508290895</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3839982222932221</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.3840136106980727</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.3840388325604346</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.3840748843740779</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.3841227506387614</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.384183197980484</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.3842340393074725</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.3842994642081622</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.3843794631399995</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.3844740585843268</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.3845831589363736</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.3847065642094141</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3848690368081581</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3850435187532062</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.3852298344795766</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.385427631310544</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.3856106206729958</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.3858060491500453</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.3860131498550184</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.3862312282999186</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.386459595794296</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.3866975705793189</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0.3869444830258828</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +9355,135 @@
       <c r="E62" t="n">
         <v>-1.185765315349478</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.187290317743252</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.189686443403502</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.192991340394313</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.196954893747207</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.201475907115551</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.206453106710835</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.211790681493243</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.217427999656311</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.223219857729678</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1.229098098846671</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.235004256647961</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-1.240851567235281</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-1.246602191517575</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-1.252224332704574</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1.257693943601833</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-1.262991981346725</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-1.268103669156201</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-1.273017983188378</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-1.277727210763681</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-1.282226557532288</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.286513793723391</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>-1.29072456880295</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-1.294728127832667</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-1.298528055673161</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-1.302127499127336</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-1.305530985071935</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-1.308891296790398</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-1.312063157242207</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-1.315055444803241</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-1.317876196799276</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-1.320533899877553</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-1.323037435520557</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-1.325236918101563</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-1.327311901481496</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-1.329269560668868</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>-1.331118129291573</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-1.333025964288194</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>-1.334828159948032</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>-1.336534873367113</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-1.338155036498479</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-1.339696997811026</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1.341168561517107</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>-1.342576986565718</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +9501,135 @@
       <c r="E63" t="n">
         <v>-0.6520292476045767</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6432063805383276</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.6350014470815175</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.6271913174437145</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.6200647716771575</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.6136173891427554</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.6078383487208541</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.6027129814437187</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.5980980245908384</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.5941389313534702</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.5908016324611794</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5880511884027512</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.5857899590720057</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.5840701756572407</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.5828441379008473</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.5820675748630998</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.5816974217922732</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.5816918750214801</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-0.582010605476933</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.5826149589620672</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.5834681273919458</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.5845352887715753</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.5857893543638131</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.5871905303321809</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.5887152245140591</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.5903389125481147</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.5920387181758602</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.5938058899227948</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.5956091133322126</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-0.5974338576368797</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-0.5992652832858998</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-0.601090001956001</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-0.6028961794328626</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-0.6046447701652409</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-0.6063544738493015</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.608016583178266</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-0.6096249727806513</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.6112154039798559</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-0.6127442592241722</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-0.6142095932169317</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-0.6156095471623511</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-0.6169430509536571</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-0.6182097929202351</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>-0.6194101339881164</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +9647,135 @@
       <c r="E64" t="n">
         <v>-0.9028372645248793</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.8974260873779685</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.8931946573826415</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.8898154853395104</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.8874143525670337</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.8858670362895213</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.8850597800775086</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8848905755788627</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.8851265984699508</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.8858497284326224</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.8869823675911158</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8884573478174064</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.8900980347311316</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.8919805990306336</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.8940564441256067</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.8962846888246999</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.8986298960579623</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.9010612252651907</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-0.9035518223511366</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.906078326979034</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.9086204662947945</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.9111607154585288</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>-0.9137882573423031</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.916382518876236</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.9189343134481699</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.9214347274064826</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.9238763261545333</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.9263567573125491</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-0.928763159229113</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-0.9310934453991154</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-0.9333454618010955</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-0.9355178493032437</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.9376100205543636</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-0.9395094256751836</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-0.9413357652008574</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.9430888471590871</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>-0.9447697165405218</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>-0.9464972047188431</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>-0.9481488470188586</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>-0.9497282983248878</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-0.9512388575857773</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>-0.9526838590093168</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-0.954066670354018</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>-0.955390663756937</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +9793,135 @@
       <c r="E65" t="n">
         <v>-0.06429510386351639</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.06239993818038354</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.06041201260901029</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.05843299972111373</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.05654941421653267</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.05483003389158529</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.05332190898690813</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.05205524318407904</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.05104044139831871</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.05029229618333586</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.04980805341679444</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.0495782590941185</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.04959662663760993</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.04983585407840042</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.05027379847989277</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.0508878496762376</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.05165489833601591</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.05255194932308667</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.05355663331580309</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.0546475874027814</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.05580472663425357</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.05700942798151176</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.05824108147245826</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.05949314935900379</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.06075257079305837</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>-0.0620068436507402</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>-0.06324492993629517</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-0.06446697549296648</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.06565888588620289</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-0.06681421623276278</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>-0.06792703260130739</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-0.06899249310471198</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.07000681280295273</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-0.07094170710238572</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>-0.07181894539965676</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.07263730166215882</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>-0.07339668879921946</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>-0.07413184312799004</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>-0.07480990705707544</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>-0.07543243628954499</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-0.07600106416014678</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>-0.0765177301831417</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>-0.0769846391431617</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>-0.07740420377890078</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +9939,135 @@
       <c r="E66" t="n">
         <v>-0.7688106991757012</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7688834981132171</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.7696568396565371</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.7712080865104075</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.7733114232187619</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.7758961765873864</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.7788915855264368</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.7822293385298912</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.7858960209507047</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.7897531072225652</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.7937480826326803</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.7978339620227776</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.8019705441513461</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.8060958237002207</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.8101808755136254</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.8142011564804791</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.8181358203767006</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.8219673788808987</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.82568141595443</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.8292663264693063</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.832713072185046</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.8360149511674146</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.8392396408500913</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-0.8423173725076927</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-0.8452459946294789</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-0.8480246940288912</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-0.8506541305383767</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-0.8532197743642825</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-0.8556407274051842</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-0.8579207992295907</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-0.860064400137742</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-0.8620766245203717</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.8639631275134518</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.865635725872305</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-0.8672000031731882</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.868662038533497</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-0.8700282416283294</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-0.8714019004843838</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-0.8726863276242509</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>-0.8738887614402385</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.8750160958695692</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-0.8760749465185583</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-0.8770716263329424</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>-0.878012121596776</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +10084,135 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7424707543223591</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.745871893611975</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.7490493901774631</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.7522550418746465</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.7553690300338787</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.7584627381549925</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.7615872419284334</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.7647755573537794</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.7680704817895461</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.7714337692837551</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7748687821784129</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7783702063046313</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7819183284157559</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.7854932659630914</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.789081466689659</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.7926661077431137</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.7962297229557699</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.7997551402795502</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.8032260812398735</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.8066275717168938</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.8099462102243089</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.813170325236092</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8163275732157966</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.8193810123047686</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.8223216035326012</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.8251436867122598</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8278433372393266</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8304629696508768</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.8329625105070333</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8353400349717324</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8375959453225383</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8397317486340576</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8417498415842667</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.843597564237725</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8453313068635877</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8469569627307465</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8484799853785105</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.849968185964502</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.851366548721592</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8526797423691407</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8539130796120307</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8550719568461391</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8561617510452809</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>-0.8571877610974383</v>
       </c>
     </row>
   </sheetData>

--- a/PLSstatic_predicted_variables_matrix_8.xlsx
+++ b/PLSstatic_predicted_variables_matrix_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,9 +575,6 @@
       <c r="AU1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -721,9 +718,6 @@
       <c r="AU2" t="n">
         <v>-0.2647762983219797</v>
       </c>
-      <c r="AV2" t="n">
-        <v>-0.2653518966698686</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -867,9 +861,6 @@
       <c r="AU3" t="n">
         <v>0.2342544360559626</v>
       </c>
-      <c r="AV3" t="n">
-        <v>0.2344291439400272</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1013,9 +1004,6 @@
       <c r="AU4" t="n">
         <v>0.2170543219559655</v>
       </c>
-      <c r="AV4" t="n">
-        <v>0.2169776298543843</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1159,9 +1147,6 @@
       <c r="AU5" t="n">
         <v>-0.08429474789682051</v>
       </c>
-      <c r="AV5" t="n">
-        <v>-0.08445802119031148</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1305,9 +1290,6 @@
       <c r="AU6" t="n">
         <v>0.1866485375112081</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0.1869364614678723</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1451,9 +1433,6 @@
       <c r="AU7" t="n">
         <v>-0.4305945371271978</v>
       </c>
-      <c r="AV7" t="n">
-        <v>-0.4313143746856067</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1597,9 +1576,6 @@
       <c r="AU8" t="n">
         <v>-0.1536493377313794</v>
       </c>
-      <c r="AV8" t="n">
-        <v>-0.1541322830713502</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1743,9 +1719,6 @@
       <c r="AU9" t="n">
         <v>-0.3541246541337554</v>
       </c>
-      <c r="AV9" t="n">
-        <v>-0.3547089838241486</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1889,9 +1862,6 @@
       <c r="AU10" t="n">
         <v>0.3977211214542443</v>
       </c>
-      <c r="AV10" t="n">
-        <v>0.3979491090969631</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2035,9 +2005,6 @@
       <c r="AU11" t="n">
         <v>-0.226661899980939</v>
       </c>
-      <c r="AV11" t="n">
-        <v>-0.2271246316639797</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2181,9 +2148,6 @@
       <c r="AU12" t="n">
         <v>-0.1211891575812574</v>
       </c>
-      <c r="AV12" t="n">
-        <v>-0.1213590117413251</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2327,9 +2291,6 @@
       <c r="AU13" t="n">
         <v>-0.06620950679620415</v>
       </c>
-      <c r="AV13" t="n">
-        <v>-0.06621615237424618</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2473,9 +2434,6 @@
       <c r="AU14" t="n">
         <v>0.02411592875602817</v>
       </c>
-      <c r="AV14" t="n">
-        <v>0.02441533852896467</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2619,9 +2577,6 @@
       <c r="AU15" t="n">
         <v>-0.1314980704876652</v>
       </c>
-      <c r="AV15" t="n">
-        <v>-0.1312561337999429</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2765,9 +2720,6 @@
       <c r="AU16" t="n">
         <v>0.2955953990142787</v>
       </c>
-      <c r="AV16" t="n">
-        <v>0.296154090313652</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2911,9 +2863,6 @@
       <c r="AU17" t="n">
         <v>0.4295826041707196</v>
       </c>
-      <c r="AV17" t="n">
-        <v>0.4307002419458371</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3057,9 +3006,6 @@
       <c r="AU18" t="n">
         <v>-0.1763540341035119</v>
       </c>
-      <c r="AV18" t="n">
-        <v>-0.1760057508867276</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3203,9 +3149,6 @@
       <c r="AU19" t="n">
         <v>0.2876338931125497</v>
       </c>
-      <c r="AV19" t="n">
-        <v>0.2881655212798454</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3349,9 +3292,6 @@
       <c r="AU20" t="n">
         <v>0.1833409001689887</v>
       </c>
-      <c r="AV20" t="n">
-        <v>0.183931498365025</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3495,9 +3435,6 @@
       <c r="AU21" t="n">
         <v>0.4945263032325449</v>
       </c>
-      <c r="AV21" t="n">
-        <v>0.4951464187482328</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3641,9 +3578,6 @@
       <c r="AU22" t="n">
         <v>0.2494370674024665</v>
       </c>
-      <c r="AV22" t="n">
-        <v>0.250258314278729</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3787,9 +3721,6 @@
       <c r="AU23" t="n">
         <v>-0.1919088990074306</v>
       </c>
-      <c r="AV23" t="n">
-        <v>-0.1915704555144596</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3933,9 +3864,6 @@
       <c r="AU24" t="n">
         <v>1.462409016671349</v>
       </c>
-      <c r="AV24" t="n">
-        <v>1.468285966191849</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4079,9 +4007,6 @@
       <c r="AU25" t="n">
         <v>0.3413176997467546</v>
       </c>
-      <c r="AV25" t="n">
-        <v>0.3421719793307682</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4225,9 +4150,6 @@
       <c r="AU26" t="n">
         <v>0.1525957819581028</v>
       </c>
-      <c r="AV26" t="n">
-        <v>0.153428559243511</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4371,9 +4293,6 @@
       <c r="AU27" t="n">
         <v>0.05340293092641359</v>
       </c>
-      <c r="AV27" t="n">
-        <v>0.05418757988173459</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4517,9 +4436,6 @@
       <c r="AU28" t="n">
         <v>0.8868617765099688</v>
       </c>
-      <c r="AV28" t="n">
-        <v>0.8883824170857969</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4663,9 +4579,6 @@
       <c r="AU29" t="n">
         <v>1.790815209352481</v>
       </c>
-      <c r="AV29" t="n">
-        <v>1.798678613614749</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4809,9 +4722,6 @@
       <c r="AU30" t="n">
         <v>0.7063697721671783</v>
       </c>
-      <c r="AV30" t="n">
-        <v>0.7077627907561352</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4955,9 +4865,6 @@
       <c r="AU31" t="n">
         <v>-0.4404169677273349</v>
       </c>
-      <c r="AV31" t="n">
-        <v>-0.4402698198232043</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5101,9 +5008,6 @@
       <c r="AU32" t="n">
         <v>0.5885130836972321</v>
       </c>
-      <c r="AV32" t="n">
-        <v>0.5895343213226241</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5247,9 +5151,6 @@
       <c r="AU33" t="n">
         <v>0.804488548643956</v>
       </c>
-      <c r="AV33" t="n">
-        <v>0.8055250721682895</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5393,9 +5294,6 @@
       <c r="AU34" t="n">
         <v>-0.8642443317432975</v>
       </c>
-      <c r="AV34" t="n">
-        <v>-0.8646467352150184</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5539,9 +5437,6 @@
       <c r="AU35" t="n">
         <v>0.8601400204813723</v>
       </c>
-      <c r="AV35" t="n">
-        <v>0.8608680444645247</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5685,9 +5580,6 @@
       <c r="AU36" t="n">
         <v>0.8277048798949955</v>
       </c>
-      <c r="AV36" t="n">
-        <v>0.828307022458451</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5831,9 +5723,6 @@
       <c r="AU37" t="n">
         <v>0.7919359722290414</v>
       </c>
-      <c r="AV37" t="n">
-        <v>0.7925234216318434</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5977,9 +5866,6 @@
       <c r="AU38" t="n">
         <v>0.6862926919021686</v>
       </c>
-      <c r="AV38" t="n">
-        <v>0.687104763020126</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6123,9 +6009,6 @@
       <c r="AU39" t="n">
         <v>0.6385035422763259</v>
       </c>
-      <c r="AV39" t="n">
-        <v>0.6388983435590333</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6269,9 +6152,6 @@
       <c r="AU40" t="n">
         <v>0.82077404501812</v>
       </c>
-      <c r="AV40" t="n">
-        <v>0.8214464022760153</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6415,9 +6295,6 @@
       <c r="AU41" t="n">
         <v>0.6055092767738497</v>
       </c>
-      <c r="AV41" t="n">
-        <v>0.6060685466315243</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6561,9 +6438,6 @@
       <c r="AU42" t="n">
         <v>0.6771868186840675</v>
       </c>
-      <c r="AV42" t="n">
-        <v>0.6778286681446847</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6707,9 +6581,6 @@
       <c r="AU43" t="n">
         <v>0.7166043733000076</v>
       </c>
-      <c r="AV43" t="n">
-        <v>0.7173108862679861</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6853,9 +6724,6 @@
       <c r="AU44" t="n">
         <v>0.7440096225171645</v>
       </c>
-      <c r="AV44" t="n">
-        <v>0.7445117979214962</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6999,9 +6867,6 @@
       <c r="AU45" t="n">
         <v>0.7617526964276349</v>
       </c>
-      <c r="AV45" t="n">
-        <v>0.7620707915618544</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7145,9 +7010,6 @@
       <c r="AU46" t="n">
         <v>-1.403834810297211</v>
       </c>
-      <c r="AV46" t="n">
-        <v>-1.405518227536288</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7291,9 +7153,6 @@
       <c r="AU47" t="n">
         <v>-1.094506895312685</v>
       </c>
-      <c r="AV47" t="n">
-        <v>-1.09583838884687</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7437,9 +7296,6 @@
       <c r="AU48" t="n">
         <v>-0.9517596351813526</v>
       </c>
-      <c r="AV48" t="n">
-        <v>-0.9530868495521414</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7583,9 +7439,6 @@
       <c r="AU49" t="n">
         <v>-0.7015912508046031</v>
       </c>
-      <c r="AV49" t="n">
-        <v>-0.7026130643787193</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7729,9 +7582,6 @@
       <c r="AU50" t="n">
         <v>-0.09441626261776627</v>
       </c>
-      <c r="AV50" t="n">
-        <v>-0.09468980069803773</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7875,9 +7725,6 @@
       <c r="AU51" t="n">
         <v>-0.9220950216264588</v>
       </c>
-      <c r="AV51" t="n">
-        <v>-0.9233839926412364</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -8021,9 +7868,6 @@
       <c r="AU52" t="n">
         <v>-0.9220950216264588</v>
       </c>
-      <c r="AV52" t="n">
-        <v>-0.9233839926412364</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8167,9 +8011,6 @@
       <c r="AU53" t="n">
         <v>-1.235958732028204</v>
       </c>
-      <c r="AV53" t="n">
-        <v>-1.237540200673493</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8313,9 +8154,6 @@
       <c r="AU54" t="n">
         <v>-0.2111318956835026</v>
       </c>
-      <c r="AV54" t="n">
-        <v>-0.2116485724397525</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8459,9 +8297,6 @@
       <c r="AU55" t="n">
         <v>-1.120569817527769</v>
       </c>
-      <c r="AV55" t="n">
-        <v>-1.121915864176622</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8605,9 +8440,6 @@
       <c r="AU56" t="n">
         <v>-0.9821610659471628</v>
       </c>
-      <c r="AV56" t="n">
-        <v>-0.9833392152057499</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8751,9 +8583,6 @@
       <c r="AU57" t="n">
         <v>-1.059091738717385</v>
       </c>
-      <c r="AV57" t="n">
-        <v>-1.060280036414368</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8897,9 +8726,6 @@
       <c r="AU58" t="n">
         <v>-1.202463130203776</v>
       </c>
-      <c r="AV58" t="n">
-        <v>-1.203893902349691</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -9043,9 +8869,6 @@
       <c r="AU59" t="n">
         <v>-0.8725837605100928</v>
       </c>
-      <c r="AV59" t="n">
-        <v>-0.8738572115376886</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -9189,9 +9012,6 @@
       <c r="AU60" t="n">
         <v>-0.4905696057341423</v>
       </c>
-      <c r="AV60" t="n">
-        <v>-0.4913296107839423</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -9335,9 +9155,6 @@
       <c r="AU61" t="n">
         <v>0.3866975705793189</v>
       </c>
-      <c r="AV61" t="n">
-        <v>0.3869444830258828</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9481,9 +9298,6 @@
       <c r="AU62" t="n">
         <v>-1.341168561517107</v>
       </c>
-      <c r="AV62" t="n">
-        <v>-1.342576986565718</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9627,9 +9441,6 @@
       <c r="AU63" t="n">
         <v>-0.6182097929202351</v>
       </c>
-      <c r="AV63" t="n">
-        <v>-0.6194101339881164</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9773,9 +9584,6 @@
       <c r="AU64" t="n">
         <v>-0.954066670354018</v>
       </c>
-      <c r="AV64" t="n">
-        <v>-0.955390663756937</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9919,9 +9727,6 @@
       <c r="AU65" t="n">
         <v>-0.0769846391431617</v>
       </c>
-      <c r="AV65" t="n">
-        <v>-0.07740420377890078</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -10065,9 +9870,6 @@
       <c r="AU66" t="n">
         <v>-0.8770716263329424</v>
       </c>
-      <c r="AV66" t="n">
-        <v>-0.878012121596776</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -10210,9 +10012,6 @@
       </c>
       <c r="AU67" t="n">
         <v>-0.8561617510452809</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>-0.8571877610974383</v>
       </c>
     </row>
   </sheetData>
